--- a/doc/Restful接口设计.xlsx
+++ b/doc/Restful接口设计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ljwfile\我的记忆\document\billadm-project\Billadm-GO\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AF9B42-052A-4DF6-8116-785204FBECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,94 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ledger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "name": "test-name"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "create ledger successfully, ledger id: 01974fe4-62dd-77ca-ac05-5f710d495f4a",
+    "data": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账本接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ledger_id": "all"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "success",
+    "data": "{\"ID\":\"01974fe6-73c8-77e8-8c9b-0a6a03042119\",\"UserID\":\"00000000-0000-0000-0000-000000000000\",\"Name\":\"test-name\",\"CreatedAt\":\"2025-06-08T22:16:32.4565183+08:00\",\"UpdatedAt\":\"2025-06-08T22:16:32.4565183+08:00\"}"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建账本test-name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有账本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易记录接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/tr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,18 +119,113 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -49,11 +235,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +546,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="2" customWidth="1"/>
+    <col min="4" max="4" width="134.08203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="46.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Restful接口设计.xlsx
+++ b/doc/Restful接口设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ljwfile\我的记忆\document\billadm-project\Billadm-GO\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AF9B42-052A-4DF6-8116-785204FBECED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D703B6DA-34E2-488C-A7E0-492EE643D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="7140" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,96 @@
   </si>
   <si>
     <t>/api/v1/tr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ledger_id": "账本id"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询指定id的账本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ledger_id": "{{LEDGER_ID}}",
+    "price": 3433,
+    "transaction_type": "expense",
+    "category_id": "",
+    "description": "test des",
+    "tags": "[\"tags1\",\"tags2\"]",
+    "transaction_at": {{$date.millisecondsTimestamp}}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "success",
+    "data": "0197d116-e30f-7a7e-9e23-e21c90e98418"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建消费记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "ledger_id": "{{LEDGER_ID}}"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 200,
+    "msg": "",
+    "data": "[{\"transaction_id\":\"0197d111-a319-7375-83ed-51971f50cf53\",\"ledger_id\":\"0197d10e-a095-7021-b097-e2672ba8dfb6\",\"price\":724.4,\"transaction_type\":\"expense\",\"category_id\":\"\",\"description\":\"测试消费\",\"tags\":[\"tags1\",\"tags2\"],\"transaction_at\":\"2025-07-04T00:14:43.477+08:00\",\"created_at\":\"2025-07-04T00:14:43.4812266+08:00\",\"updated_at\":\"2025-07-04T00:14:43.4812266+08:00\"},{\"transaction_id\":\"0197d116-e30f-7a7e-9e23-e21c90e98418\",\"ledger_id\":\"0197d10e-a095-7021-b097-e2672ba8dfb6\",\"price\":3433,\"transaction_type\":\"expense\",\"category_id\":\"\",\"description\":\"test des\",\"tags\":[\"tags1\",\"tags2\"],\"transaction_at\":\"2025-07-04T00:20:27.533+08:00\",\"created_at\":\"2025-07-04T00:20:27.5356877+08:00\",\"updated_at\":\"2025-07-04T00:20:27.5356877+08:00\"}]"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tr_id": "{{TR_ID}}"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "success",
+    "data": null
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除指定id的消费记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除整个账本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "success",
+    "data": "[]"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 0,
+    "msg": "success",
+    "data": "{\"id\":\"0197e047-c546-743d-b7da-8d9f6c0de5cb\",\"user_id\":\"00000000-0000-0000-0000-000000000000\",\"name\":\"test-name\",\"created_at\":\"2025-07-06T23:08:09.414278+08:00\",\"updated_at\":\"2025-07-06T23:08:09.414278+08:00\"}"
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -249,6 +339,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -258,13 +357,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,19 +646,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" style="2" customWidth="1"/>
-    <col min="4" max="4" width="134.08203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="110.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
@@ -576,22 +675,22 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
@@ -606,11 +705,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="99" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -623,55 +722,93 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
@@ -890,10 +1027,26 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
